--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>开始日期</t>
   </si>
@@ -55,6 +55,9 @@
     <t>结束星期</t>
   </si>
   <si>
+    <t>地点</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
@@ -128,6 +131,27 @@
   </si>
   <si>
     <t>只允许后八周开课的课程退课，所删课程不记录在成绩单上，其他课程、北大、北外课程均不可退课。</t>
+  </si>
+  <si>
+    <t>刘卿楼110</t>
+  </si>
+  <si>
+    <t>事务</t>
+  </si>
+  <si>
+    <t>班会</t>
+  </si>
+  <si>
+    <t>成绩分析+本学期班级事务介绍</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>女生节</t>
+  </si>
+  <si>
+    <t>具体时间待定</t>
   </si>
 </sst>
 </file>
@@ -1067,20 +1091,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="9" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6363636363636" style="1" customWidth="1"/>
-    <col min="11" max="11" width="100.636363636364" style="1" customWidth="1"/>
+    <col min="1" max="8" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="100.636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,8 +1140,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>45632</v>
       </c>
@@ -1128,14 +1157,14 @@
       <c r="F2" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>45639</v>
       </c>
@@ -1148,17 +1177,17 @@
       <c r="F3" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>45645</v>
       </c>
@@ -1171,14 +1200,14 @@
       <c r="F4" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>45646</v>
       </c>
@@ -1191,17 +1220,17 @@
       <c r="F5" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>45670</v>
       </c>
@@ -1214,17 +1243,17 @@
       <c r="F6" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>45705</v>
       </c>
@@ -1237,17 +1266,17 @@
       <c r="F7" s="3">
         <v>0.333333333333333</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>45705</v>
       </c>
@@ -1260,17 +1289,17 @@
       <c r="F8" s="3">
         <v>0.333333333333333</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>45712</v>
       </c>
@@ -1283,14 +1312,14 @@
       <c r="F9" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>45712</v>
       </c>
@@ -1303,17 +1332,17 @@
       <c r="F10" s="3">
         <v>0.5</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>45712</v>
       </c>
@@ -1326,17 +1355,17 @@
       <c r="F11" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>45740</v>
       </c>
@@ -1349,17 +1378,17 @@
       <c r="F12" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>45740</v>
       </c>
@@ -1372,17 +1401,17 @@
       <c r="F13" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>45768</v>
       </c>
@@ -1395,19 +1424,60 @@
       <c r="F14" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2"/>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -1,72 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="10480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">开始日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始周次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始星期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束周次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束星期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">事件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选课</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预选</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正选</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>开始周次</t>
+  </si>
+  <si>
+    <t>开始星期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>结束周次</t>
+  </si>
+  <si>
+    <t>结束星期</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>选课</t>
+  </si>
+  <si>
+    <t>预选</t>
+  </si>
+  <si>
+    <t>正选</t>
   </si>
   <si>
     <r>
@@ -74,41 +81,40 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">全部课程可选可删，先选先得，选满后实行</t>
+      <t>全部课程可选可删，先选先得，选满后实行</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Waiting List</t>
+      <t>Waiting List</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">方案。</t>
+      <t>方案。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">重补修体育课分项（第一次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二级选课（第一次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先选先得，选满为止。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北大、北外课程选课</t>
+    <t>重补修体育课分项（第一次）</t>
+  </si>
+  <si>
+    <t>二级选课（第一次）</t>
+  </si>
+  <si>
+    <t>先选先得，选满为止。</t>
+  </si>
+  <si>
+    <t>北大、北外课程选课</t>
   </si>
   <si>
     <r>
@@ -116,50 +122,49 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">先选先得，选满后实行</t>
+      <t>先选先得，选满后实行</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Waiting List</t>
+      <t>Waiting List</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">方案。</t>
+      <t>方案。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">补退选（第一阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二级选课（第二次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重补修体育课分项（第二次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网上申请特殊原因补选</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学生网上申请，经任课教师、开课院系网上两重审批均通过后，方可补选成功。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">补退选（第二阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本科生体育课程不可选，亦不可删。其他课程不可选课，只允许删除已选课程，所删课程不记录在成绩单上。</t>
+    <t>补退选（第一阶段）</t>
+  </si>
+  <si>
+    <t>二级选课（第二次）</t>
+  </si>
+  <si>
+    <t>重补修体育课分项（第二次）</t>
+  </si>
+  <si>
+    <t>网上申请特殊原因补选</t>
+  </si>
+  <si>
+    <t>学生网上申请，经任课教师、开课院系网上两重审批均通过后，方可补选成功。</t>
+  </si>
+  <si>
+    <t>补退选（第二阶段）</t>
+  </si>
+  <si>
+    <t>本科生体育课程不可选，亦不可删。其他课程不可选课，只允许删除已选课程，所删课程不记录在成绩单上。</t>
   </si>
   <si>
     <r>
@@ -167,28 +172,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">选择课程以</t>
+      <t>选择课程以</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">P/F</t>
+      <t>P/F</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">记载</t>
+      <t>记载</t>
     </r>
   </si>
   <si>
@@ -197,60 +201,58 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">在“课程属性”为“任选”的已选课程中选择一门，其成绩记为</t>
+      <t>在“课程属性”为“任选”的已选课程中选择一门，其成绩记为</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">P</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">或</t>
+      <t>或</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">F</t>
+      <t>F</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">，无绩点。</t>
+      <t>，无绩点。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">退课（第一阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">除本科生体育课、北外课程不可退课外，其他课程均可退课，所删后八周课程不记录在成绩单上。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退课（第二阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只允许后八周开课的课程退课，所删课程不记录在成绩单上，其他课程、北大、北外课程均不可退课。</t>
+    <t>退课（第一阶段）</t>
+  </si>
+  <si>
+    <t>除本科生体育课、北外课程不可退课外，其他课程均可退课，所删后八周课程不记录在成绩单上。</t>
+  </si>
+  <si>
+    <t>退课（第二阶段）</t>
+  </si>
+  <si>
+    <t>只允许后八周开课的课程退课，所删课程不记录在成绩单上，其他课程、北大、北外课程均不可退课。</t>
   </si>
   <si>
     <r>
@@ -258,26 +260,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">刘卿楼</t>
+      <t>刘卿楼</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">110</t>
+      <t>110</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">事务</t>
-  </si>
-  <si>
-    <t xml:space="preserve">班会</t>
+    <t>事务</t>
+  </si>
+  <si>
+    <t>班会</t>
   </si>
   <si>
     <r>
@@ -285,208 +286,1014 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">成绩分析</t>
+      <t>成绩分析</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">本学期班级事务介绍</t>
+      <t>本学期班级事务介绍</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">活动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女生节</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体时间待定</t>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>女生节</t>
+  </si>
+  <si>
+    <t>具体时间待定</t>
+  </si>
+  <si>
+    <t>英语四、六级考试报名</t>
+  </si>
+  <si>
+    <t>详见&lt;a href="https://info.tsinghua.edu.cn/f/info/xxfb_fg/xnzx/template/detail?xxid=dfb5ef7690dba841d381d5e5b500179e" target="_blank"   class="normal"&gt;《关于2025年上半年全国大学英语四、六级考试报名的通知》&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="h:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Source Han Sans CN"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874cb"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ee822f"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="f2ba02"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75bd42"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30c0b4"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="e54c5e"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026e5"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7e1fad"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,7 +1310,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="2700000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -515,7 +1322,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="2700000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -575,35 +1382,34 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="100.64"/>
+    <col min="1" max="8" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="100.636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,17 +1447,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
         <v>45632</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>45635</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -661,17 +1467,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3" s="3">
         <v>45639</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>45642</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -684,17 +1490,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
         <v>45645</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>45649</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -704,17 +1510,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5" s="3">
         <v>45646</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>45653</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -727,17 +1533,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
         <v>45670</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>45672</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -750,17 +1556,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
         <v>45705</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>45712</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>0.333333333333333</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -773,17 +1579,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
         <v>45705</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>45712</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>0.333333333333333</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -796,17 +1602,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
         <v>45712</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>45715</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -816,17 +1622,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
         <v>45712</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>45716</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>0.5</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -839,17 +1645,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
         <v>45712</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>45716</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -862,17 +1668,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
         <v>45740</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>0.333333333333333</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>45744</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -885,17 +1691,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
         <v>45740</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>0.333333333333333</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>45744</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -908,17 +1714,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
         <v>45768</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>0.333333333333333</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>45772</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -931,18 +1737,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>0.6875</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>0.75</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -958,12 +1764,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12">
       <c r="A16" s="3"/>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>6</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -976,59 +1782,66 @@
         <v>40</v>
       </c>
     </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5">
+        <v>45730</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45741</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -1,72 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="10480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">开始日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始周次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始星期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束周次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束星期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">事件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选课</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预选</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正选</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>开始周次</t>
+  </si>
+  <si>
+    <t>开始星期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>结束周次</t>
+  </si>
+  <si>
+    <t>结束星期</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>选课</t>
+  </si>
+  <si>
+    <t>预选</t>
+  </si>
+  <si>
+    <t>正选</t>
   </si>
   <si>
     <r>
@@ -74,43 +81,40 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">全部课程可选可删，先选先得，选满后实行</t>
+        <charset val="134"/>
+      </rPr>
+      <t>全部课程可选可删，先选先得，选满后实行</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Waiting List</t>
+        <charset val="134"/>
+      </rPr>
+      <t>Waiting List</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">方案。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">重补修体育课分项（第一次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二级选课（第一次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先选先得，选满为止。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北大、北外课程选课</t>
+        <charset val="134"/>
+      </rPr>
+      <t>方案。</t>
+    </r>
+  </si>
+  <si>
+    <t>重补修体育课分项（第一次）</t>
+  </si>
+  <si>
+    <t>二级选课（第一次）</t>
+  </si>
+  <si>
+    <t>先选先得，选满为止。</t>
+  </si>
+  <si>
+    <t>北大、北外课程选课</t>
   </si>
   <si>
     <r>
@@ -118,52 +122,49 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">先选先得，选满后实行</t>
+        <charset val="134"/>
+      </rPr>
+      <t>先选先得，选满后实行</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Waiting List</t>
+        <charset val="134"/>
+      </rPr>
+      <t>Waiting List</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">方案。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">补退选（第一阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二级选课（第二次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重补修体育课分项（第二次）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网上申请特殊原因补选</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学生网上申请，经任课教师、开课院系网上两重审批均通过后，方可补选成功。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">补退选（第二阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本科生体育课程不可选，亦不可删。其他课程不可选课，只允许删除已选课程，所删课程不记录在成绩单上。</t>
+        <charset val="134"/>
+      </rPr>
+      <t>方案。</t>
+    </r>
+  </si>
+  <si>
+    <t>补退选（第一阶段）</t>
+  </si>
+  <si>
+    <t>二级选课（第二次）</t>
+  </si>
+  <si>
+    <t>重补修体育课分项（第二次）</t>
+  </si>
+  <si>
+    <t>网上申请特殊原因补选</t>
+  </si>
+  <si>
+    <t>学生网上申请，经任课教师、开课院系网上两重审批均通过后，方可补选成功。</t>
+  </si>
+  <si>
+    <t>补退选（第二阶段）</t>
+  </si>
+  <si>
+    <t>本科生体育课程不可选，亦不可删。其他课程不可选课，只允许删除已选课程，所删课程不记录在成绩单上。</t>
   </si>
   <si>
     <r>
@@ -171,30 +172,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">选择课程以</t>
+        <charset val="134"/>
+      </rPr>
+      <t>选择课程以</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P/F</t>
+        <charset val="134"/>
+      </rPr>
+      <t>P/F</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">记载</t>
+        <charset val="134"/>
+      </rPr>
+      <t>记载</t>
     </r>
   </si>
   <si>
@@ -203,63 +201,58 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">在“课程属性”为“任选”的已选课程中选择一门，其成绩记为</t>
+        <charset val="134"/>
+      </rPr>
+      <t>在“课程属性”为“任选”的已选课程中选择一门，其成绩记为</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P</t>
+        <charset val="134"/>
+      </rPr>
+      <t>P</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">或</t>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">F</t>
+        <charset val="134"/>
+      </rPr>
+      <t>F</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，无绩点。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">退课（第一阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">除本科生体育课、北外课程不可退课外，其他课程均可退课，所删后八周课程不记录在成绩单上。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退课（第二阶段）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只允许后八周开课的课程退课，所删课程不记录在成绩单上，其他课程、北大、北外课程均不可退课。</t>
+        <charset val="134"/>
+      </rPr>
+      <t>，无绩点。</t>
+    </r>
+  </si>
+  <si>
+    <t>退课（第一阶段）</t>
+  </si>
+  <si>
+    <t>除本科生体育课、北外课程不可退课外，其他课程均可退课，所删后八周课程不记录在成绩单上。</t>
+  </si>
+  <si>
+    <t>退课（第二阶段）</t>
+  </si>
+  <si>
+    <t>只允许后八周开课的课程退课，所删课程不记录在成绩单上，其他课程、北大、北外课程均不可退课。</t>
   </si>
   <si>
     <r>
@@ -267,27 +260,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">刘卿楼</t>
+        <charset val="134"/>
+      </rPr>
+      <t>刘卿楼</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">110</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">事务</t>
-  </si>
-  <si>
-    <t xml:space="preserve">班会</t>
+        <charset val="134"/>
+      </rPr>
+      <t>110</t>
+    </r>
+  </si>
+  <si>
+    <t>事务</t>
+  </si>
+  <si>
+    <t>班会</t>
   </si>
   <si>
     <r>
@@ -295,43 +286,31 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">成绩分析</t>
+        <charset val="134"/>
+      </rPr>
+      <t>成绩分析</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">+</t>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">本学期班级事务介绍</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">活动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女生节</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体时间待定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英语四、六级考试报名</t>
+        <charset val="134"/>
+      </rPr>
+      <t>本学期班级事务介绍</t>
+    </r>
+  </si>
+  <si>
+    <t>英语四、六级考试报名</t>
   </si>
   <si>
     <r>
@@ -339,256 +318,1054 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">详见</t>
+        <charset val="134"/>
+      </rPr>
+      <t>详见</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;a href="https://info.tsinghua.edu.cn/f/info/xxfb_fg/xnzx/template/detail?xxid=dfb5ef7690dba841d381d5e5b500179e" target="_blank"   class="normal"&gt;</t>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href="https://info.tsinghua.edu.cn/f/info/xxfb_fg/xnzx/template/detail?xxid=dfb5ef7690dba841d381d5e5b500179e" target="_blank"   class="normal"&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">《关于</t>
+        <charset val="134"/>
+      </rPr>
+      <t>《关于</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2025</t>
+        <charset val="134"/>
+      </rPr>
+      <t>2025</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">年上半年全国大学英语四、六级考试报名的通知》</t>
+        <charset val="134"/>
+      </rPr>
+      <t>年上半年全国大学英语四、六级考试报名的通知》</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">清明踏青</t>
-  </si>
-  <si>
-    <t xml:space="preserve">读书分享会</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深耕实践</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主题党团日</t>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>清明踏青</t>
+  </si>
+  <si>
+    <t>具体时间待定</t>
+  </si>
+  <si>
+    <t>读书分享会</t>
+  </si>
+  <si>
+    <t>深耕实践</t>
+  </si>
+  <si>
+    <t>主题党团日</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="h:mm"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Source Han Sans CN"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Source Han Sans CN"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874cb"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ee822f"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="f2ba02"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75bd42"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30c0b4"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="e54c5e"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026e5"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7e1fad"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,7 +1382,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="2700000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -617,7 +1394,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="2700000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -677,35 +1454,34 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="100.64"/>
+    <col min="1" max="8" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="100.636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,17 +1519,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
         <v>45632</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>45635</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -763,17 +1539,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3" s="3">
         <v>45639</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>45642</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -786,17 +1562,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
         <v>45645</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>45649</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -806,17 +1582,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5" s="3">
         <v>45646</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>45653</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -829,17 +1605,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
         <v>45670</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>45672</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -852,17 +1628,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
         <v>45705</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>45712</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>0.333333333333333</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -875,17 +1651,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
         <v>45705</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>45712</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>0.333333333333333</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -898,17 +1674,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
         <v>45712</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>45715</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -918,17 +1694,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
         <v>45712</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>45716</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>0.5</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -941,17 +1717,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
         <v>45712</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>0.541666666666667</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>45716</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -964,17 +1740,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
         <v>45740</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>0.333333333333333</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>45744</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -987,17 +1763,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
         <v>45740</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>0.333333333333333</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>45744</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1010,17 +1786,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
         <v>45768</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>0.333333333333333</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>45772</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>0.666666666666667</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1033,18 +1809,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>0.6875</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>0.75</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1060,165 +1836,131 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="C16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>45730</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45741</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5">
+        <v>45751</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="K17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>45730</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>45741</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="5" t="s">
+    <row r="18" spans="3:12">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>45751</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="5" t="s">
+    <row r="19" spans="3:12">
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="K19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="n">
+    <row r="20" spans="3:12">
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
         <v>7</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="J20" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>40</v>
+      <c r="L20" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>开始日期</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>主题党团日</t>
+  </si>
+  <si>
+    <t>刘卿楼110</t>
+  </si>
+  <si>
+    <t>团组织生活会</t>
+  </si>
+  <si>
+    <t>集体自习</t>
+  </si>
+  <si>
+    <t>markdown基本讲解、核辐射物理及探测学或量子力学知识梳理</t>
   </si>
 </sst>
 </file>
@@ -399,17 +411,11 @@
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Source Han Sans CN"/>
       <charset val="134"/>
     </font>
     <font>
@@ -880,18 +886,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,122 +909,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,9 +1038,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1466,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1849,13 +1852,13 @@
       <c r="F16" s="4">
         <v>0.708333333333333</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1863,13 +1866,13 @@
       <c r="A17" s="5">
         <v>45751</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1880,13 +1883,13 @@
       <c r="D18" s="1">
         <v>7</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1897,31 +1900,80 @@
       <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>7</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="4">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="4">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -396,7 +396,7 @@
     <t>集体自习</t>
   </si>
   <si>
-    <t>markdown基本讲解、核辐射物理及探测学或量子力学知识梳理</t>
+    <t>markdown基本讲解、核辐射物理及探测学知识梳理</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="4">
-        <v>0.604166666666667</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1938,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="4">
-        <v>0.625</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>46</v>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>开始日期</t>
   </si>
@@ -375,12 +375,15 @@
     <t>清明踏青</t>
   </si>
   <si>
+    <t>玉渊潭公园踏青，同时举行摄影比赛。</t>
+  </si>
+  <si>
+    <t>读书分享会</t>
+  </si>
+  <si>
     <t>具体时间待定</t>
   </si>
   <si>
-    <t>读书分享会</t>
-  </si>
-  <si>
     <t>深耕实践</t>
   </si>
   <si>
@@ -397,6 +400,15 @@
   </si>
   <si>
     <t>markdown基本讲解、核辐射物理及探测学知识梳理</t>
+  </si>
+  <si>
+    <t>量子力学知识梳理</t>
+  </si>
+  <si>
+    <t>固本计划导读会</t>
+  </si>
+  <si>
+    <t>《政治经济学概论》导读与第一章介绍</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,6 +1050,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1469,10 +1484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1866,13 +1881,19 @@
       <c r="A17" s="5">
         <v>45751</v>
       </c>
+      <c r="B17" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.645833333333333</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1890,7 +1911,7 @@
         <v>43</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:12">
@@ -1904,10 +1925,10 @@
         <v>40</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="3:12">
@@ -1921,10 +1942,10 @@
         <v>40</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -1941,13 +1962,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -1964,16 +1985,68 @@
         <v>0.708333333333333</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>开始日期</t>
   </si>
@@ -387,6 +387,9 @@
     <t>深耕实践</t>
   </si>
   <si>
+    <t>参观中国钱币博物馆</t>
+  </si>
+  <si>
     <t>主题党团日</t>
   </si>
   <si>
@@ -409,6 +412,27 @@
   </si>
   <si>
     <t>《政治经济学概论》导读与第一章介绍</t>
+  </si>
+  <si>
+    <t>四教4202</t>
+  </si>
+  <si>
+    <t>小班辅导</t>
+  </si>
+  <si>
+    <t>核辐射物理及探测学小班辅导，主讲人：郑如意</t>
+  </si>
+  <si>
+    <t>四教4201</t>
+  </si>
+  <si>
+    <t>模拟电子技术基础B小班辅导，主讲人：胡麒麟</t>
+  </si>
+  <si>
+    <t>六教6A209</t>
+  </si>
+  <si>
+    <t>量子力学小班辅导，主讲人：郑济东</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1914,21 +1938,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="2:12">
+      <c r="B19" s="4">
+        <v>0.375</v>
+      </c>
       <c r="C19" s="1">
         <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
       </c>
+      <c r="F19" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>44</v>
+      <c r="L19" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:12">
@@ -1942,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>44</v>
@@ -1962,13 +1992,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -1985,16 +2015,16 @@
         <v>0.708333333333333</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2011,16 +2041,16 @@
         <v>0.5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -2037,16 +2067,128 @@
         <v>0.416666666666667</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.871527777777778</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.871527777777778</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="1">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="1">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>开始日期</t>
   </si>
@@ -114,39 +114,10 @@
     <t>先选先得，选满为止。</t>
   </si>
   <si>
-    <t>北大、北外课程选课</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先选先得，选满后实行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Waiting List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方案。</t>
-    </r>
-  </si>
-  <si>
     <t>补退选（第一阶段）</t>
+  </si>
+  <si>
+    <t>全部课程可选可删，先选先得，选满后实行Waiting List方案。</t>
   </si>
   <si>
     <t>二级选课（第二次）</t>
@@ -433,6 +404,15 @@
   </si>
   <si>
     <t>量子力学小班辅导，主讲人：郑济东</t>
+  </si>
+  <si>
+    <t>选课-夏</t>
+  </si>
+  <si>
+    <t>退课</t>
+  </si>
+  <si>
+    <t>所退课程在成绩单上记W。</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,6 +1054,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1508,10 +1491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1563,13 +1546,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3">
-        <v>45632</v>
+        <v>45793</v>
       </c>
       <c r="B2" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E2" s="3">
-        <v>45635</v>
+        <v>45796</v>
       </c>
       <c r="F2" s="4">
         <v>0.666666666666667</v>
@@ -1583,13 +1566,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3">
-        <v>45639</v>
+        <v>45800</v>
       </c>
       <c r="B3" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E3" s="3">
-        <v>45642</v>
+        <v>45803</v>
       </c>
       <c r="F3" s="4">
         <v>0.666666666666667</v>
@@ -1606,13 +1589,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3">
-        <v>45645</v>
+        <v>45804</v>
       </c>
       <c r="B4" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E4" s="3">
-        <v>45649</v>
+        <v>45807</v>
       </c>
       <c r="F4" s="4">
         <v>0.666666666666667</v>
@@ -1626,13 +1609,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3">
-        <v>45646</v>
+        <v>45807</v>
       </c>
       <c r="B5" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E5" s="3">
-        <v>45653</v>
+        <v>45814</v>
       </c>
       <c r="F5" s="4">
         <v>0.666666666666667</v>
@@ -1649,16 +1632,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3">
-        <v>45670</v>
+        <v>45915</v>
       </c>
       <c r="B6" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E6" s="3">
-        <v>45672</v>
+        <v>45922</v>
       </c>
       <c r="F6" s="4">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>12</v>
@@ -1666,19 +1649,19 @@
       <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3">
-        <v>45705</v>
+        <v>45915</v>
       </c>
       <c r="B7" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E7" s="3">
-        <v>45712</v>
+        <v>45922</v>
       </c>
       <c r="F7" s="4">
         <v>0.333333333333333</v>
@@ -1690,21 +1673,21 @@
         <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
-        <v>45705</v>
+        <v>45922</v>
       </c>
       <c r="B8" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E8" s="3">
-        <v>45712</v>
+        <v>45925</v>
       </c>
       <c r="F8" s="4">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>12</v>
@@ -1712,22 +1695,19 @@
       <c r="K8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
-        <v>45712</v>
+        <v>45922</v>
       </c>
       <c r="B9" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E9" s="3">
-        <v>45715</v>
+        <v>45926</v>
       </c>
       <c r="F9" s="4">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
@@ -1735,39 +1715,42 @@
       <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
-        <v>45712</v>
+        <v>45922</v>
       </c>
       <c r="B10" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E10" s="3">
-        <v>45716</v>
+        <v>45922</v>
       </c>
       <c r="F10" s="4">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
-        <v>45712</v>
+        <v>45950</v>
       </c>
       <c r="B11" s="4">
-        <v>0.541666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E11" s="3">
-        <v>45716</v>
+        <v>45954</v>
       </c>
       <c r="F11" s="4">
         <v>0.666666666666667</v>
@@ -1776,21 +1759,21 @@
         <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
-        <v>45740</v>
+        <v>45950</v>
       </c>
       <c r="B12" s="4">
         <v>0.333333333333333</v>
       </c>
       <c r="E12" s="3">
-        <v>45744</v>
+        <v>45954</v>
       </c>
       <c r="F12" s="4">
         <v>0.666666666666667</v>
@@ -1799,21 +1782,21 @@
         <v>12</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
-        <v>45740</v>
+        <v>45978</v>
       </c>
       <c r="B13" s="4">
         <v>0.333333333333333</v>
       </c>
       <c r="E13" s="3">
-        <v>45744</v>
+        <v>45982</v>
       </c>
       <c r="F13" s="4">
         <v>0.666666666666667</v>
@@ -1822,165 +1805,165 @@
         <v>12</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>45768</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="4">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45772</v>
+        <v>0.6875</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
       </c>
       <c r="F14" s="4">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>45730</v>
+      </c>
       <c r="B15" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45741</v>
       </c>
       <c r="F15" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I15" s="2" t="s">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>45730</v>
+      <c r="A16" s="5">
+        <v>45751</v>
       </c>
       <c r="B16" s="4">
         <v>0.416666666666667</v>
       </c>
-      <c r="E16" s="3">
-        <v>45741</v>
-      </c>
       <c r="F16" s="4">
-        <v>0.708333333333333</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5">
-        <v>45751</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="3:12">
+      <c r="L17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4">
+        <v>0.375</v>
+      </c>
       <c r="C18" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>7</v>
       </c>
+      <c r="F18" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="4">
-        <v>0.375</v>
-      </c>
+      <c r="L18" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="F19" s="4">
-        <v>0.5</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="3:12">
+      <c r="L19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="4">
+        <v>0.645833333333333</v>
+      </c>
       <c r="C20" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>7</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="4">
-        <v>0.645833333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1989,39 +1972,42 @@
         <v>6</v>
       </c>
       <c r="F21" s="4">
-        <v>0.666666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="L21" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="4">
-        <v>0.583333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="4">
-        <v>0.708333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>51</v>
@@ -2029,7 +2015,7 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="4">
-        <v>0.416666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
@@ -2038,76 +2024,76 @@
         <v>7</v>
       </c>
       <c r="F23" s="4">
-        <v>0.5</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="4">
-        <v>0.375</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F24" s="4">
-        <v>0.416666666666667</v>
+        <v>0.871527777777778</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="4">
-        <v>0.805555555555556</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="C25" s="1">
         <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F25" s="4">
-        <v>0.871527777777778</v>
+        <v>0.6875</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="4">
-        <v>0.604166666666667</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="C26" s="1">
         <v>8</v>
@@ -2116,79 +2102,122 @@
         <v>7</v>
       </c>
       <c r="F26" s="4">
-        <v>0.6875</v>
+        <v>0.871527777777778</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="4">
-        <v>0.805555555555556</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
       <c r="C27" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1">
-        <v>7</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.871527777777778</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="1">
-        <v>15</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6">
+        <v>45804</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45814</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.666666666666667</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6">
+        <v>45815</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45897</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="6">
+        <v>45898</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45904</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>开始日期</t>
   </si>
@@ -349,22 +349,25 @@
     <t>玉渊潭公园踏青，同时举行摄影比赛。</t>
   </si>
   <si>
-    <t>读书分享会</t>
+    <t>刘卿楼110</t>
+  </si>
+  <si>
+    <t>班会、读书分享会、集体自习</t>
+  </si>
+  <si>
+    <t>成绩分析与选课指导；&lt;br&gt;《政治经济学概论》第三章讨论；&lt;br&gt;知识梳理。</t>
+  </si>
+  <si>
+    <t>深耕实践</t>
+  </si>
+  <si>
+    <t>参观中国钱币博物馆</t>
+  </si>
+  <si>
+    <t>主题党团日</t>
   </si>
   <si>
     <t>具体时间待定</t>
-  </si>
-  <si>
-    <t>深耕实践</t>
-  </si>
-  <si>
-    <t>参观中国钱币博物馆</t>
-  </si>
-  <si>
-    <t>主题党团日</t>
-  </si>
-  <si>
-    <t>刘卿楼110</t>
   </si>
   <si>
     <t>团组织生活会</t>
@@ -1491,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1881,21 +1884,30 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="2:12">
+      <c r="B17" s="4">
+        <v>0.375</v>
+      </c>
       <c r="C17" s="1">
         <v>13</v>
       </c>
       <c r="D17" s="1">
         <v>7</v>
       </c>
+      <c r="F17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="K17" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -1915,10 +1927,10 @@
         <v>39</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:12">
@@ -1932,10 +1944,10 @@
         <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1952,13 +1964,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -1975,16 +1987,16 @@
         <v>0.708333333333333</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -2001,16 +2013,16 @@
         <v>0.5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2027,16 +2039,16 @@
         <v>0.416666666666667</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -2053,16 +2065,16 @@
         <v>0.871527777777778</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -2079,16 +2091,16 @@
         <v>0.6875</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2105,21 +2117,21 @@
         <v>0.871527777777778</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
@@ -2128,96 +2140,79 @@
         <v>39</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="1">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1">
-        <v>6</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6">
+        <v>45804</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E28" s="6">
+        <v>45814</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.666666666666667</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6">
-        <v>45804</v>
+        <v>45815</v>
       </c>
       <c r="B29" s="4">
         <v>0.541666666666667</v>
       </c>
       <c r="E29" s="6">
-        <v>45814</v>
+        <v>45897</v>
       </c>
       <c r="F29" s="4">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6">
-        <v>45815</v>
+        <v>45898</v>
       </c>
       <c r="B30" s="4">
-        <v>0.541666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E30" s="6">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="F30" s="4">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="6">
-        <v>45898</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E31" s="6">
-        <v>45904</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -355,7 +355,7 @@
     <t>班会、读书分享会、集体自习</t>
   </si>
   <si>
-    <t>成绩分析与选课指导；&lt;br&gt;《政治经济学概论》第三章讨论；&lt;br&gt;知识梳理。</t>
+    <t>成绩分析与选课指导；《政治经济学概论》第三章讨论；知识梳理。</t>
   </si>
   <si>
     <t>深耕实践</t>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -1496,8 +1496,8 @@
   <sheetPr/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1730,7 +1730,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="E10" s="3">
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="F10" s="4">
         <v>0.666666666666667</v>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>开始日期</t>
   </si>
@@ -367,48 +367,51 @@
     <t>主题党团日</t>
   </si>
   <si>
+    <t>以故宫和文物保护为主题</t>
+  </si>
+  <si>
+    <t>团组织生活会</t>
+  </si>
+  <si>
+    <t>集体自习</t>
+  </si>
+  <si>
+    <t>markdown基本讲解、核辐射物理及探测学知识梳理</t>
+  </si>
+  <si>
+    <t>量子力学知识梳理</t>
+  </si>
+  <si>
+    <t>固本计划导读会</t>
+  </si>
+  <si>
+    <t>《政治经济学概论》导读与第一章介绍</t>
+  </si>
+  <si>
+    <t>四教4202</t>
+  </si>
+  <si>
+    <t>小班辅导</t>
+  </si>
+  <si>
+    <t>核辐射物理及探测学小班辅导，主讲人：郑如意</t>
+  </si>
+  <si>
+    <t>四教4201</t>
+  </si>
+  <si>
+    <t>模拟电子技术基础B小班辅导，主讲人：胡麒麟</t>
+  </si>
+  <si>
+    <t>六教6A209</t>
+  </si>
+  <si>
+    <t>量子力学小班辅导，主讲人：郑济东</t>
+  </si>
+  <si>
     <t>具体时间待定</t>
   </si>
   <si>
-    <t>团组织生活会</t>
-  </si>
-  <si>
-    <t>集体自习</t>
-  </si>
-  <si>
-    <t>markdown基本讲解、核辐射物理及探测学知识梳理</t>
-  </si>
-  <si>
-    <t>量子力学知识梳理</t>
-  </si>
-  <si>
-    <t>固本计划导读会</t>
-  </si>
-  <si>
-    <t>《政治经济学概论》导读与第一章介绍</t>
-  </si>
-  <si>
-    <t>四教4202</t>
-  </si>
-  <si>
-    <t>小班辅导</t>
-  </si>
-  <si>
-    <t>核辐射物理及探测学小班辅导，主讲人：郑如意</t>
-  </si>
-  <si>
-    <t>四教4201</t>
-  </si>
-  <si>
-    <t>模拟电子技术基础B小班辅导，主讲人：胡麒麟</t>
-  </si>
-  <si>
-    <t>六教6A209</t>
-  </si>
-  <si>
-    <t>量子力学小班辅导，主讲人：郑济东</t>
-  </si>
-  <si>
     <t>选课-夏</t>
   </si>
   <si>
@@ -416,6 +419,12 @@
   </si>
   <si>
     <t>所退课程在成绩单上记W。</t>
+  </si>
+  <si>
+    <t>英语四级考试</t>
+  </si>
+  <si>
+    <t>英语六级考试</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1933,20 +1942,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="2:12">
+      <c r="B19" s="4">
+        <v>0.708333333333333</v>
+      </c>
       <c r="C19" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
       </c>
+      <c r="F19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2143,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2160,7 +2178,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>12</v>
@@ -2183,7 +2201,7 @@
         <v>0.5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>23</v>
@@ -2206,13 +2224,47 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="6">
+        <v>45823</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="6">
+        <v>45824</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.725694444444444</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="6">
-        <v>45824</v>
+        <v>45823</v>
       </c>
       <c r="B32" s="4">
         <v>0.625</v>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>开始日期</t>
   </si>
@@ -394,22 +394,28 @@
     <t>小班辅导</t>
   </si>
   <si>
-    <t>核辐射物理及探测学小班辅导，主讲人：郑如意</t>
+    <t>核辐射物理及探测学期中小班辅导，主讲人：郑如意</t>
   </si>
   <si>
     <t>四教4201</t>
   </si>
   <si>
-    <t>模拟电子技术基础B小班辅导，主讲人：胡麒麟</t>
+    <t>模拟电子技术基础B期中小班辅导，主讲人：胡麒麟</t>
   </si>
   <si>
     <t>六教6A209</t>
   </si>
   <si>
-    <t>量子力学小班辅导，主讲人：郑济东</t>
-  </si>
-  <si>
-    <t>具体时间待定</t>
+    <t>量子力学期中小班辅导，主讲人：郑济东</t>
+  </si>
+  <si>
+    <t>建筑馆报告厅</t>
+  </si>
+  <si>
+    <t>“万象”工物系甲团风采展示会</t>
+  </si>
+  <si>
+    <t>工物系二、三、四字班甲团评比</t>
   </si>
   <si>
     <t>选课-夏</t>
@@ -425,6 +431,15 @@
   </si>
   <si>
     <t>英语六级考试</t>
+  </si>
+  <si>
+    <t>核辐射物理及探测学期末小班辅导，具体时间待定</t>
+  </si>
+  <si>
+    <t>量子力学期末小班辅导，具体时间待定</t>
+  </si>
+  <si>
+    <t>模拟电子技术基础B期末小班辅导，具体时间待定</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,6 +1087,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1503,10 +1521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2147,21 +2165,30 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="2:12">
+      <c r="B27" s="4">
+        <v>0.583333333333333</v>
+      </c>
       <c r="C27" s="1">
         <v>14</v>
       </c>
       <c r="D27" s="1">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2178,7 +2205,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>12</v>
@@ -2201,7 +2228,7 @@
         <v>0.5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>23</v>
@@ -2224,13 +2251,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2247,7 +2274,7 @@
         <v>34</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2264,7 +2291,58 @@
         <v>34</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="1">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="1">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="1">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -1064,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,9 +1087,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1524,7 +1521,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2176,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="4">
-        <v>0.666666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>62</v>
@@ -2187,7 +2184,7 @@
       <c r="K27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="1" t="s">
         <v>64</v>
       </c>
     </row>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -355,7 +355,7 @@
     <t>班会、读书分享会、集体自习</t>
   </si>
   <si>
-    <t>成绩分析与选课指导；《政治经济学概论》第三章讨论；知识梳理。</t>
+    <t>成绩分析与选课指导；《政治经济学概论》讨论与模拟经营；知识梳理。</t>
   </si>
   <si>
     <t>深耕实践</t>
@@ -1520,8 +1520,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>开始日期</t>
   </si>
@@ -433,7 +433,10 @@
     <t>英语六级考试</t>
   </si>
   <si>
-    <t>核辐射物理及探测学期末小班辅导，具体时间待定</t>
+    <t>六教6A205</t>
+  </si>
+  <si>
+    <t>核辐射物理及探测学期末小班辅导，主讲人：高谨泽、邓日灿、钱昊远</t>
   </si>
   <si>
     <t>量子力学期末小班辅导，具体时间待定</t>
@@ -1520,8 +1523,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2291,12 +2294,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="2:12">
+      <c r="B33" s="4">
+        <v>0.409722222222222</v>
+      </c>
       <c r="C33" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>39</v>
@@ -2305,7 +2317,7 @@
         <v>56</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="3:12">
@@ -2322,7 +2334,7 @@
         <v>56</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="3:12">
@@ -2339,7 +2351,7 @@
         <v>56</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>开始日期</t>
   </si>
@@ -437,12 +437,6 @@
   </si>
   <si>
     <t>核辐射物理及探测学期末小班辅导，主讲人：高谨泽、邓日灿、钱昊远</t>
-  </si>
-  <si>
-    <t>量子力学期末小班辅导，具体时间待定</t>
-  </si>
-  <si>
-    <t>模拟电子技术基础B期末小班辅导，具体时间待定</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1515,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2320,38 +2314,27 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="2:11">
+      <c r="B34" s="4">
+        <v>0.805555555555556</v>
+      </c>
       <c r="C34" s="1">
         <v>16</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
+      <c r="F34" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="J34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="1">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="6">
-        <v>45823</v>
+        <v>45822</v>
       </c>
       <c r="B31" s="4">
         <v>0.375</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="6">
-        <v>45823</v>
+        <v>45822</v>
       </c>
       <c r="B32" s="4">
         <v>0.625</v>

--- a/INDEX/schedule/Event.xlsx
+++ b/INDEX/schedule/Event.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>开始日期</t>
   </si>
@@ -226,198 +226,6 @@
     <t>只允许后八周开课的课程退课，所删课程不记录在成绩单上，其他课程、北大、北外课程均不可退课。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘卿楼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>110</t>
-    </r>
-  </si>
-  <si>
-    <t>事务</t>
-  </si>
-  <si>
-    <t>班会</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成绩分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本学期班级事务介绍</t>
-    </r>
-  </si>
-  <si>
-    <t>英语四、六级考试报名</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;a href="https://info.tsinghua.edu.cn/f/info/xxfb_fg/xnzx/template/detail?xxid=dfb5ef7690dba841d381d5e5b500179e" target="_blank"   class="normal"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>《关于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Han Sans CN"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年上半年全国大学英语四、六级考试报名的通知》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>清明踏青</t>
-  </si>
-  <si>
-    <t>玉渊潭公园踏青，同时举行摄影比赛。</t>
-  </si>
-  <si>
-    <t>刘卿楼110</t>
-  </si>
-  <si>
-    <t>班会、读书分享会、集体自习</t>
-  </si>
-  <si>
-    <t>成绩分析与选课指导；《政治经济学概论》讨论与模拟经营；知识梳理。</t>
-  </si>
-  <si>
-    <t>深耕实践</t>
-  </si>
-  <si>
-    <t>参观中国钱币博物馆</t>
-  </si>
-  <si>
-    <t>主题党团日</t>
-  </si>
-  <si>
-    <t>以故宫和文物保护为主题</t>
-  </si>
-  <si>
-    <t>团组织生活会</t>
-  </si>
-  <si>
-    <t>集体自习</t>
-  </si>
-  <si>
-    <t>markdown基本讲解、核辐射物理及探测学知识梳理</t>
-  </si>
-  <si>
-    <t>量子力学知识梳理</t>
-  </si>
-  <si>
-    <t>固本计划导读会</t>
-  </si>
-  <si>
-    <t>《政治经济学概论》导读与第一章介绍</t>
-  </si>
-  <si>
-    <t>四教4202</t>
-  </si>
-  <si>
-    <t>小班辅导</t>
-  </si>
-  <si>
-    <t>核辐射物理及探测学期中小班辅导，主讲人：郑如意</t>
-  </si>
-  <si>
-    <t>四教4201</t>
-  </si>
-  <si>
-    <t>模拟电子技术基础B期中小班辅导，主讲人：胡麒麟</t>
-  </si>
-  <si>
-    <t>六教6A209</t>
-  </si>
-  <si>
-    <t>量子力学期中小班辅导，主讲人：郑济东</t>
-  </si>
-  <si>
-    <t>建筑馆报告厅</t>
-  </si>
-  <si>
-    <t>“万象”工物系甲团风采展示会</t>
-  </si>
-  <si>
-    <t>工物系二、三、四字班甲团评比</t>
-  </si>
-  <si>
     <t>选课-夏</t>
   </si>
   <si>
@@ -425,31 +233,18 @@
   </si>
   <si>
     <t>所退课程在成绩单上记W。</t>
-  </si>
-  <si>
-    <t>英语四级考试</t>
-  </si>
-  <si>
-    <t>英语六级考试</t>
-  </si>
-  <si>
-    <t>六教6A205</t>
-  </si>
-  <si>
-    <t>核辐射物理及探测学期末小班辅导，主讲人：高谨泽、邓日灿、钱昊远</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1061,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,9 +870,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1517,8 +1309,8 @@
   <sheetPr/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1673,7 +1465,7 @@
       <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1836,506 +1628,173 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5">
+        <v>45804</v>
+      </c>
       <c r="B14" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45814</v>
       </c>
       <c r="F14" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I14" s="2" t="s">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>36</v>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>45730</v>
+      <c r="A15" s="5">
+        <v>45815</v>
       </c>
       <c r="B15" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45741</v>
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45897</v>
       </c>
       <c r="F15" s="4">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>37</v>
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5">
-        <v>45751</v>
+        <v>45898</v>
       </c>
       <c r="B16" s="4">
-        <v>0.416666666666667</v>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45904</v>
       </c>
       <c r="F16" s="4">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C17" s="1">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="4"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="4"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="4">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C19" s="1">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="4">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="4">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1">
-        <v>7</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="4">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.871527777777778</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="4">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>7</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="4">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="C26" s="1">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.871527777777778</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="4">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C27" s="1">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1">
-        <v>7</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="6">
-        <v>45804</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="E28" s="6">
-        <v>45814</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="6">
-        <v>45815</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="E29" s="6">
-        <v>45897</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="6">
-        <v>45898</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E30" s="6">
-        <v>45904</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="6">
-        <v>45822</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.472222222222222</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="6">
-        <v>45822</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.725694444444444</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="4">
-        <v>0.409722222222222</v>
-      </c>
-      <c r="C33" s="1">
-        <v>16</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="4">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="C34" s="1">
-        <v>16</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0.9375</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="4"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
